--- a/docs/Extension-CareConnect-NHSCommunication-1.xlsx
+++ b/docs/Extension-CareConnect-NHSCommunication-1.xlsx
@@ -294,7 +294,7 @@
     <t>Human Language</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-HumanLanguage-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-HumanLanguage-1</t>
   </si>
   <si>
     <t>preferred</t>
@@ -328,7 +328,7 @@
     <t>Language Ability Mode</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-LanguageAbilityMode-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-LanguageAbilityMode-1</t>
   </si>
   <si>
     <t>communicationProficiency</t>
@@ -346,7 +346,7 @@
     <t>Language Ability Proficiency</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-LanguageAbilityProficiency-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-LanguageAbilityProficiency-1</t>
   </si>
   <si>
     <t>interpreterRequired</t>
@@ -361,7 +361,7 @@
     <t>Indicates whether an interpreter is required for communication purposes- True / False?</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-NHSCommunication-1</t>
+    <t>https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-NHSCommunication-1</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="26.0703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.68359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
